--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-08T15:18:08+00:00</t>
+    <t>2023-10-08T16:27:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-08T16:27:40+00:00</t>
+    <t>2023-10-08T17:16:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-08T17:16:49+00:00</t>
+    <t>2023-10-09T06:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T06:26:13+00:00</t>
+    <t>2023-10-09T07:38:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T07:38:23+00:00</t>
+    <t>2023-10-09T10:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T10:14:34+00:00</t>
+    <t>2023-10-09T14:01:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T14:01:59+00:00</t>
+    <t>2023-10-09T15:13:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T15:13:36+00:00</t>
+    <t>2023-10-10T04:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T04:14:57+00:00</t>
+    <t>2023-10-10T10:14:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T10:14:03+00:00</t>
+    <t>2023-10-10T15:14:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-10T15:14:14+00:00</t>
+    <t>2023-10-11T04:16:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T04:16:01+00:00</t>
+    <t>2023-10-11T10:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T10:13:53+00:00</t>
+    <t>2023-10-11T15:12:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-11T15:12:41+00:00</t>
+    <t>2023-10-12T04:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T04:15:18+00:00</t>
+    <t>2023-10-12T10:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T10:13:51+00:00</t>
+    <t>2023-10-12T15:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-12T15:14:10+00:00</t>
+    <t>2023-10-13T04:15:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T04:15:21+00:00</t>
+    <t>2023-10-13T08:26:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T08:26:16+00:00</t>
+    <t>2023-10-13T10:13:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T10:13:51+00:00</t>
+    <t>2023-10-13T13:55:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T13:55:37+00:00</t>
+    <t>2023-10-13T15:14:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-13T15:14:08+00:00</t>
+    <t>2023-10-14T04:14:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T04:14:36+00:00</t>
+    <t>2023-10-14T10:11:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T10:11:38+00:00</t>
+    <t>2023-10-14T15:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-14T15:11:34+00:00</t>
+    <t>2023-10-15T04:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T04:14:26+00:00</t>
+    <t>2023-10-15T10:02:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T10:02:27+00:00</t>
+    <t>2023-10-15T10:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T10:10:14+00:00</t>
+    <t>2023-10-15T10:12:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T10:12:24+00:00</t>
+    <t>2023-10-15T15:11:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-15T15:11:14+00:00</t>
+    <t>2023-10-16T04:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T04:14:57+00:00</t>
+    <t>2023-10-16T10:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T10:14:01+00:00</t>
+    <t>2023-10-16T15:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-16T15:13:19+00:00</t>
+    <t>2023-10-17T04:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T04:15:03+00:00</t>
+    <t>2023-10-17T10:14:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-17T10:14:25+00:00</t>
+    <t>2023-10-18T04:14:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T04:14:55+00:00</t>
+    <t>2023-10-18T10:14:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T10:14:10+00:00</t>
+    <t>2023-10-18T15:13:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-18T15:13:12+00:00</t>
+    <t>2023-10-19T04:15:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T04:15:16+00:00</t>
+    <t>2023-10-19T10:13:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T10:13:39+00:00</t>
+    <t>2023-10-19T15:13:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-19T15:13:48+00:00</t>
+    <t>2023-10-20T04:14:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T04:14:49+00:00</t>
+    <t>2023-10-20T10:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T10:13:31+00:00</t>
+    <t>2023-10-20T15:12:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-20T15:12:54+00:00</t>
+    <t>2023-10-21T04:15:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-21T04:15:20+00:00</t>
+    <t>2023-10-21T10:11:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-21T10:11:56+00:00</t>
+    <t>2023-10-21T15:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-21T15:11:15+00:00</t>
+    <t>2023-10-22T04:14:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-22T04:14:18+00:00</t>
+    <t>2023-10-22T10:12:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-22T10:12:33+00:00</t>
+    <t>2023-10-22T15:11:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-22T15:11:19+00:00</t>
+    <t>2023-10-23T04:15:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T04:15:08+00:00</t>
+    <t>2023-10-23T10:13:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T10:13:33+00:00</t>
+    <t>2023-10-23T15:13:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-23T15:13:47+00:00</t>
+    <t>2023-10-24T04:14:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T04:14:32+00:00</t>
+    <t>2023-10-24T10:14:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T10:14:03+00:00</t>
+    <t>2023-10-24T15:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-24T15:14:41+00:00</t>
+    <t>2023-10-25T04:14:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T04:14:43+00:00</t>
+    <t>2023-10-25T10:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T10:14:13+00:00</t>
+    <t>2023-10-25T15:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-25T15:13:46+00:00</t>
+    <t>2023-10-26T04:14:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T04:14:20+00:00</t>
+    <t>2023-10-26T10:13:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T10:13:18+00:00</t>
+    <t>2023-10-26T15:12:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-26T15:12:50+00:00</t>
+    <t>2023-10-27T04:14:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T04:14:50+00:00</t>
+    <t>2023-10-27T10:13:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T10:13:13+00:00</t>
+    <t>2023-10-27T15:12:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-27T15:12:32+00:00</t>
+    <t>2023-10-28T04:14:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-28T04:14:31+00:00</t>
+    <t>2023-10-28T10:11:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-28T10:11:58+00:00</t>
+    <t>2023-10-28T15:13:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-28T15:13:22+00:00</t>
+    <t>2023-10-29T04:14:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T04:14:11+00:00</t>
+    <t>2023-10-29T10:12:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T10:12:28+00:00</t>
+    <t>2023-10-29T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-29T15:12:02+00:00</t>
+    <t>2023-10-30T04:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T04:15:23+00:00</t>
+    <t>2023-10-30T10:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T10:14:34+00:00</t>
+    <t>2023-10-30T15:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-30T15:13:46+00:00</t>
+    <t>2023-10-31T04:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-31T04:14:34+00:00</t>
+    <t>2023-10-31T10:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-15T15:13:37+00:00</t>
+    <t>2023-11-16T04:15:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T04:15:06+00:00</t>
+    <t>2023-11-16T10:13:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-16T10:13:38+00:00</t>
+    <t>2023-11-17T04:14:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T04:14:53+00:00</t>
+    <t>2023-11-17T10:13:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-17T10:13:49+00:00</t>
+    <t>2023-11-18T04:14:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-18T04:14:40+00:00</t>
+    <t>2023-11-18T10:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-18T10:12:25+00:00</t>
+    <t>2023-11-18T15:11:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-18T15:11:43+00:00</t>
+    <t>2023-11-19T04:14:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T04:14:13+00:00</t>
+    <t>2023-11-19T10:12:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T10:12:23+00:00</t>
+    <t>2023-11-19T15:11:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-19T15:11:43+00:00</t>
+    <t>2023-11-20T04:15:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-20T04:15:49+00:00</t>
+    <t>2023-11-20T10:14:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-20T10:14:20+00:00</t>
+    <t>2023-11-21T04:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T04:15:13+00:00</t>
+    <t>2023-11-21T10:19:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T10:19:52+00:00</t>
+    <t>2023-11-21T15:12:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-21T15:12:58+00:00</t>
+    <t>2023-11-22T04:15:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T04:15:13+00:00</t>
+    <t>2023-11-22T08:10:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T08:10:37+00:00</t>
+    <t>2023-11-22T10:14:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T10:14:33+00:00</t>
+    <t>2023-11-22T15:13:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-22T15:13:07+00:00</t>
+    <t>2023-11-23T04:15:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-23T04:15:21+00:00</t>
+    <t>2023-11-23T10:13:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-23T10:13:28+00:00</t>
+    <t>2023-11-24T04:15:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-24T04:15:22+00:00</t>
+    <t>2023-11-24T10:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-24T10:13:31+00:00</t>
+    <t>2023-11-24T15:12:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-24T15:12:30+00:00</t>
+    <t>2023-11-25T04:15:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-25T04:15:07+00:00</t>
+    <t>2023-11-25T10:12:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-25T10:12:03+00:00</t>
+    <t>2023-11-25T15:11:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-25T15:11:42+00:00</t>
+    <t>2023-11-26T04:15:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-26T04:15:04+00:00</t>
+    <t>2023-11-26T10:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-26T10:12:52+00:00</t>
+    <t>2023-11-26T15:03:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-26T15:03:19+00:00</t>
+    <t>2023-11-26T15:11:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T08:56:45+00:00</t>
+    <t>2023-11-28T10:13:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T10:13:57+00:00</t>
+    <t>2023-11-28T14:40:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T14:40:51+00:00</t>
+    <t>2023-11-28T15:13:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-28T15:13:32+00:00</t>
+    <t>2023-12-05T13:56:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T13:56:29+00:00</t>
+    <t>2023-12-05T15:13:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-05T15:13:52+00:00</t>
+    <t>2023-12-06T04:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T04:15:14+00:00</t>
+    <t>2023-12-06T10:13:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T10:13:31+00:00</t>
+    <t>2023-12-06T15:13:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-06T15:13:42+00:00</t>
+    <t>2023-12-07T04:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T04:15:02+00:00</t>
+    <t>2023-12-07T10:14:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T10:14:07+00:00</t>
+    <t>2023-12-07T15:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:13:58+00:00</t>
+    <t>2023-12-08T04:15:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T04:15:23+00:00</t>
+    <t>2023-12-08T10:13:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T10:13:45+00:00</t>
+    <t>2023-12-08T15:13:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T15:13:26+00:00</t>
+    <t>2023-12-09T04:15:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T04:15:02+00:00</t>
+    <t>2023-12-09T10:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T10:12:02+00:00</t>
+    <t>2023-12-09T15:11:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-09T15:11:23+00:00</t>
+    <t>2023-12-10T04:14:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-10T04:14:46+00:00</t>
+    <t>2023-12-10T10:12:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-10T10:12:52+00:00</t>
+    <t>2023-12-10T15:11:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-10T15:11:34+00:00</t>
+    <t>2023-12-11T10:14:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T10:14:42+00:00</t>
+    <t>2023-12-11T15:13:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-11T15:13:53+00:00</t>
+    <t>2023-12-12T04:15:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T04:15:03+00:00</t>
+    <t>2023-12-12T10:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T10:16:19+00:00</t>
+    <t>2023-12-12T15:13:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-12T15:13:05+00:00</t>
+    <t>2023-12-13T04:15:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T04:15:01+00:00</t>
+    <t>2023-12-13T10:13:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T10:13:50+00:00</t>
+    <t>2023-12-13T15:14:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T15:14:09+00:00</t>
+    <t>2023-12-14T04:14:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T04:14:57+00:00</t>
+    <t>2023-12-14T10:14:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T10:14:22+00:00</t>
+    <t>2023-12-14T15:13:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-14T15:13:19+00:00</t>
+    <t>2023-12-15T04:15:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/CodeSystem-terminologie-cim-10.xlsx
+++ b/ig/main/CodeSystem-terminologie-cim-10.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T04:15:14+00:00</t>
+    <t>2023-12-15T10:13:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
